--- a/biology/Zoologie/Janus_(genre)/Janus_(genre).xlsx
+++ b/biology/Zoologie/Janus_(genre)/Janus_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Janus est un genre d'Insectes de l'ordre des Hyménoptères, de la famille des Cephidae.
 </t>
@@ -511,13 +523,15 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (12 mars 2024)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (12 mars 2024) :
 Janus compressus (Fabricius, 1793)
 Janus femoratus (Curtis, 1830)
 Janus luteipes (Lepeletier, 1823)
-Selon NCBI  (12 mars 2024)[2] :
+Selon NCBI  (12 mars 2024) :
 Janus abbreviatus
 Janus bimaculatus
 Janus compressus
@@ -554,9 +568,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Janus Stephens, 1835 et, du fait d'une absence de description en 1829, porte le nom invalide complet (nomen nudum) Stephens, 1829[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Janus Stephens, 1835 et, du fait d'une absence de description en 1829, porte le nom invalide complet (nomen nudum) Stephens, 1829.
 </t>
         </is>
       </c>
